--- a/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -492,7 +492,7 @@
         <v>371599807</v>
       </c>
       <c r="B4" s="3">
-        <v>-1566411474</v>
+        <v>1735911982</v>
       </c>
       <c r="C4" s="3">
         <v>401643752</v>

--- a/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -33,13 +33,14 @@
     <t>int</t>
   </si>
   <si>
-    <t>脚本ID</t>
-  </si>
-  <si>
     <t>xLua文件id</t>
   </si>
   <si>
     <t>xLua文件夹id</t>
+  </si>
+  <si>
+    <t>路径ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -49,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -61,18 +62,28 @@
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -112,39 +123,33 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="差" xfId="0" builtinId="27"/>
-    <cellStyle name="常规" xfId="1" builtinId="0"/>
+    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -444,57 +449,57 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="12.453125" customWidth="1" style="3"/>
-    <col min="2" max="2" bestFit="1" width="15.453125" customWidth="1" style="3"/>
-    <col min="3" max="3" bestFit="1" width="18.453125" customWidth="1" style="3"/>
+    <col min="1" max="1" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="33.75" customHeight="1" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="17.5" s="6" customFormat="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>371599807</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1735911982</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>401643752</v>
       </c>
     </row>
@@ -507,6 +512,5 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="TableData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -33,14 +33,13 @@
     <t>int</t>
   </si>
   <si>
+    <t>路径ID</t>
+  </si>
+  <si>
     <t>xLua文件id</t>
   </si>
   <si>
     <t>xLua文件夹id</t>
-  </si>
-  <si>
-    <t>路径ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -50,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -62,28 +61,18 @@
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -123,33 +112,39 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="0" builtinId="27"/>
+    <cellStyle name="常规" xfId="1" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -446,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -454,52 +449,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10.26953125" customWidth="1" style="3"/>
+    <col min="2" max="2" bestFit="1" width="15.453125" customWidth="1" style="3"/>
+    <col min="3" max="3" bestFit="1" width="18.453125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="35.25" customHeight="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="33.75" customHeight="1" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.5" s="6" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="3">
         <v>371599807</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1735911982</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
+        <v>401643752</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>1341507094</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-510167203</v>
+      </c>
+      <c r="C5" s="3">
         <v>401643752</v>
       </c>
     </row>
@@ -512,5 +518,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -509,6 +509,17 @@
         <v>401643752</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>-1961732982</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1714968970</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-799817549</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A65453 A1:XFD3">

--- a/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -489,35 +489,46 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>371599807</v>
+        <v>26054685</v>
       </c>
       <c r="B4" s="3">
-        <v>1735911982</v>
+        <v>821365954</v>
       </c>
       <c r="C4" s="3">
-        <v>401643752</v>
+        <v>24384822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1341507094</v>
+        <v>461922966</v>
       </c>
       <c r="B5" s="3">
-        <v>-510167203</v>
+        <v>1428139627</v>
       </c>
       <c r="C5" s="3">
-        <v>401643752</v>
+        <v>24384822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1961732982</v>
+        <v>1826951081</v>
       </c>
       <c r="B6" s="3">
-        <v>1714968970</v>
+        <v>-633996269</v>
       </c>
       <c r="C6" s="3">
-        <v>-799817549</v>
+        <v>24384822</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>954203850</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1038403056</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1213201749</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -489,35 +489,35 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>26054685</v>
+        <v>-945156383</v>
       </c>
       <c r="B4" s="3">
-        <v>821365954</v>
+        <v>-1382448832</v>
       </c>
       <c r="C4" s="3">
-        <v>24384822</v>
+        <v>2118059982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>461922966</v>
+        <v>150456452</v>
       </c>
       <c r="B5" s="3">
-        <v>1428139627</v>
+        <v>139913362</v>
       </c>
       <c r="C5" s="3">
-        <v>24384822</v>
+        <v>2118059982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>1826951081</v>
+        <v>85954043</v>
       </c>
       <c r="B6" s="3">
-        <v>-633996269</v>
+        <v>-901086922</v>
       </c>
       <c r="C6" s="3">
-        <v>24384822</v>
+        <v>2118059982</v>
       </c>
     </row>
     <row r="7">
@@ -528,7 +528,7 @@
         <v>-1038403056</v>
       </c>
       <c r="C7" s="3">
-        <v>1213201749</v>
+        <v>1723212885</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -489,21 +489,21 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-945156383</v>
+        <v>1833458762</v>
       </c>
       <c r="B4" s="3">
-        <v>-1382448832</v>
+        <v>-1314513662</v>
       </c>
       <c r="C4" s="3">
-        <v>2118059982</v>
+        <v>-764457537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>150456452</v>
+        <v>-945156383</v>
       </c>
       <c r="B5" s="3">
-        <v>139913362</v>
+        <v>-1382448832</v>
       </c>
       <c r="C5" s="3">
         <v>2118059982</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>85954043</v>
+        <v>150456452</v>
       </c>
       <c r="B6" s="3">
-        <v>-901086922</v>
+        <v>139913362</v>
       </c>
       <c r="C6" s="3">
         <v>2118059982</v>
@@ -522,13 +522,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>954203850</v>
+        <v>85954043</v>
       </c>
       <c r="B7" s="3">
-        <v>-1038403056</v>
+        <v>-901086922</v>
       </c>
       <c r="C7" s="3">
-        <v>1723212885</v>
+        <v>2118059982</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>105118418</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2125618822</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1278219496</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -489,57 +489,57 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>1833458762</v>
+        <v>-6009765</v>
       </c>
       <c r="B4" s="3">
-        <v>-1314513662</v>
+        <v>2059770990</v>
       </c>
       <c r="C4" s="3">
-        <v>-764457537</v>
+        <v>-1872478931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-945156383</v>
+        <v>1987303425</v>
       </c>
       <c r="B5" s="3">
-        <v>-1382448832</v>
+        <v>-963352690</v>
       </c>
       <c r="C5" s="3">
-        <v>2118059982</v>
+        <v>-362082228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>150456452</v>
+        <v>-1703398116</v>
       </c>
       <c r="B6" s="3">
-        <v>139913362</v>
+        <v>357115443</v>
       </c>
       <c r="C6" s="3">
-        <v>2118059982</v>
+        <v>-362082228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>85954043</v>
+        <v>-613156177</v>
       </c>
       <c r="B7" s="3">
-        <v>-901086922</v>
+        <v>-130311525</v>
       </c>
       <c r="C7" s="3">
-        <v>2118059982</v>
+        <v>-362082228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>105118418</v>
+        <v>-1638796845</v>
       </c>
       <c r="B8" s="3">
-        <v>2125618822</v>
+        <v>1282971839</v>
       </c>
       <c r="C8" s="3">
-        <v>-1278219496</v>
+        <v>661756464</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
+++ b/Assets/Game/Editor/XLS_Config/XLuaMap.xlsx
@@ -489,57 +489,57 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-6009765</v>
+        <v>904815335</v>
       </c>
       <c r="B4" s="3">
-        <v>2059770990</v>
+        <v>1930332635</v>
       </c>
       <c r="C4" s="3">
-        <v>-1872478931</v>
+        <v>-217314462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1987303425</v>
+        <v>1699267833</v>
       </c>
       <c r="B5" s="3">
-        <v>-963352690</v>
+        <v>-824851563</v>
       </c>
       <c r="C5" s="3">
-        <v>-362082228</v>
+        <v>764955609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1703398116</v>
+        <v>155849596</v>
       </c>
       <c r="B6" s="3">
-        <v>357115443</v>
+        <v>1181717926</v>
       </c>
       <c r="C6" s="3">
-        <v>-362082228</v>
+        <v>764955609</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-613156177</v>
+        <v>162792376</v>
       </c>
       <c r="B7" s="3">
-        <v>-130311525</v>
+        <v>-9716690</v>
       </c>
       <c r="C7" s="3">
-        <v>-362082228</v>
+        <v>764955609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-1638796845</v>
+        <v>923338692</v>
       </c>
       <c r="B8" s="3">
-        <v>1282971839</v>
+        <v>-1437778274</v>
       </c>
       <c r="C8" s="3">
-        <v>661756464</v>
+        <v>-887612720</v>
       </c>
     </row>
   </sheetData>
